--- a/Maga3Sem/Управление ИТ проектами/Гусев В.Е. 09-335 управление ИТ проектами.xlsx
+++ b/Maga3Sem/Управление ИТ проектами/Гусев В.Е. 09-335 управление ИТ проектами.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vitaly.gusev\Desktop\Универ\Управление ИТ проектами\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vitaly.gusev\Desktop\Универ\Bachelor_course\Maga3Sem\Управление ИТ проектами\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58BB5F6C-8BE5-4E92-84B8-65AB42FE9300}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{116D5F7B-FDDE-4D2C-B02C-F0D0029D1288}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Гусев Виталий Евгеньевич</t>
   </si>
@@ -71,18 +71,59 @@
   <si>
     <t>Управление проектом - применение управленческих действий — планирования, координации, измерения, мониторинга, контроллинга и отчетности — для обеспечения эффективного предоставления программных
 продуктов и услуг по разработке программного обеспечения на благо заинтересованных сторон.</t>
+  </si>
+  <si>
+    <t>Цель процесса: формальное открытие проекта. Выходы процесса определяются и документируются следующими параметрами проекта: - наименование проекта; - причины инициации проекта; - цели и продукты проекта; - дата инициации проекта; - заказчик проекта; - руководитель проекта; - куратор проекта.</t>
+  </si>
+  <si>
+    <t>Определение действий, необходимых для получения каждого результата, а затем разбиение каждого действия на задачи, разделение работы на итерации, определение результатов для
+каждой итерации, а затем определение связанных с ними действий
+и задач, или использование предыдущей аналогичной инициативы в качестве
+основы и применение более детальных задач и действий,
+уникальных для текущей инициативы.</t>
+  </si>
+  <si>
+    <t>- Инициирование и определение объема работ, которые связаны с принятием решения о начале проекта по разработке программного обеспечения; - Планирование проекта по разработке программного обеспечения, которое рассматривает действия, предпринимаемые для подготовки успешного проекта по разработке программного обеспечения с точки зрения руководства; - Утверждение проекта разработки программного обеспечения, которое касается общепринятых действий по управлению разработкой программного обеспечения, которые выполняются во время выполнения проекта разработки программного обеспечения; - Обзор и оценка, которые направлены на обеспечение удовлетворительного технического состояния, графика, стоимости и качества работ по разработке программного обеспечения.; -Завершение, в котором рассматриваются действия, предпринятые для завершения проекта;  - Измерение в области разработки программного обеспечения, которое касается эффективной разработки и внедрения программ измерения в организациях, занимающихся разработкой программного обеспечения;  - Инструменты управления разработкой программного обеспечения, в которых описывается выбор и использование инструментов для управления проектом разработки программного обеспечения.</t>
+  </si>
+  <si>
+    <t>Процесс разработки расписания</t>
+  </si>
+  <si>
+    <t>Цель процесса: определение дат начала и окончания работ проекта, ключевых событий, этапов и проекта в целом. Выходы процесса:
+- определены взаимосвязи между работами проекта;
+- проведена оценка длительности работ проекта;
+- определен и утвержден график привлечения ресурсов, необходимых для выполнения проекта
+в срок;
+- определено и документировано расписание проекта;
+- утвержден базовый календарный план проекта.</t>
+  </si>
+  <si>
+    <t>Жизненный цикл требований: начинается с представления бизнес-потребности в качестве
+требования, продолжается в ходе разработки решения, заканчивается, когда решение и представляющие его требования
+перестают использоваться.</t>
+  </si>
+  <si>
+    <t>1.Основные процессы включают в себя процессы разработки, взаимодействия и сопровождения программного обеспечения. 2. Вспомогательные процессы применяются периодически или непрерывно на протяжении всего жизненного цикла программного продукта для поддержки основных процессов; они включают в себя такие программные процессы, как управление конфигурацией, обеспечение качества, верификация и валидация. 3. Организационные процессы обеспечивают поддержку разработки программного обеспечения; они включают обучение, анализ измерений процессов, управление инфраструктурой, управление портфолио и повторным использованием, организационный процесс совершенствование моделей жизненного цикла программного обеспечения и управление ими. 4. Межпроектные процессы, такие как повторное использование, разработка линейки программных продуктов и предметной области; они охватывают более одного программного проекта в организации</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -121,13 +162,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -411,8 +455,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -479,19 +523,33 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
+      <c r="B7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="319" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="2"/>
@@ -639,5 +697,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>